--- a/biology/Botanique/Myxochloridaceae/Myxochloridaceae.xlsx
+++ b/biology/Botanique/Myxochloridaceae/Myxochloridaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Myxochloridaceae sont une famille d'algues de l'embranchement des Ochrophyta  de la classe des Xanthophyceae et de l’ordre des Rhizochloridales.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Myxochloris, composé du préfixe myxo-, du grec μυξα / myxa « mucosité », et du suffixe chlor-, « en rapport avec la couleur verte », littéralement « mucosité verte  ».
 </t>
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -568,9 +584,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Myxochloris est un organisme qui, à l'état adulte, peut être solitaire ou à plusieurs, dans les cellules aquatiques de sphaignes (plante bryophyte aquatique), sous la forme de grandes cellules plurinucléées (plusieurs noyaux), pourvues de nombreux chromatophores[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Myxochloris est un organisme qui, à l'état adulte, peut être solitaire ou à plusieurs, dans les cellules aquatiques de sphaignes (plante bryophyte aquatique), sous la forme de grandes cellules plurinucléées (plusieurs noyaux), pourvues de nombreux chromatophores.
 </t>
         </is>
       </c>
@@ -599,9 +617,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (5 avril 2022)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (5 avril 2022) :
 Myxochloris Pascher, 1930</t>
         </is>
       </c>
